--- a/lab2/resources/RealEstateProperties.xlsx
+++ b/lab2/resources/RealEstateProperties.xlsx
@@ -879,8 +879,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100726E9D20B6B9924491E72D842EC3C47D" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5d407c2cde3775ffc27663b03afc237">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="eda28685-874e-441d-8960-3e3bcb88ba40" xmlns:ns3="2403ecb8-e57a-4b9f-a747-b55409138909" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c5c7dae29720a62b4b1604bd97dbbd17" ns1:_="" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100726E9D20B6B9924491E72D842EC3C47D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="694aba42a08203a581c3a3f78b5220c7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="eda28685-874e-441d-8960-3e3bcb88ba40" xmlns:ns3="2403ecb8-e57a-4b9f-a747-b55409138909" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bd2ef9dc508f59322e398fb37a827f10" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="eda28685-874e-441d-8960-3e3bcb88ba40"/>
     <xsd:import namespace="2403ecb8-e57a-4b9f-a747-b55409138909"/>
@@ -901,8 +901,6 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -964,16 +962,6 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="20" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -1128,7 +1116,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63104D67-B894-446A-BFF6-601E0E562100}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3437FDCC-4A4A-4362-9BC1-77E5B42DA48F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
